--- a/data/trans_dic/P25_11-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_11-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece trastornos depresivos</t>
+          <t>Población que padece trastornos depresivos (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>6,98%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>11,12%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12,27%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,16%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>11,5%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>12,08%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>16,16%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>8,71%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>8,06%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>8,34%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>11,64%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>13,91%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 9,17</t>
+          <t>4,23; 9,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,92</t>
+          <t>2,94; 7,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,03</t>
+          <t>3,08; 6,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,94</t>
+          <t>5,33; 10,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 13,44</t>
+          <t>5,39; 9,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,06</t>
+          <t>7,28; 11,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 14,66</t>
+          <t>8,93; 13,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,59; 18,99</t>
+          <t>9,44; 13,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 10,56</t>
+          <t>10,39; 14,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 9,66</t>
+          <t>12,46; 18,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,11</t>
+          <t>13,56; 18,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,07; 13,32</t>
+          <t>15,72; 21,42</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 10,79</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 10,01</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 10,25</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 13,53</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>10,05; 13,42</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 15,6</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>3,89%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,13%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15,18%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>13,93%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7,08%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>15,14%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>8,49%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>8,66%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,76</t>
+          <t>3,42; 8,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 10,87</t>
+          <t>3,53; 9,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,73</t>
+          <t>3,1; 10,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,72</t>
+          <t>4,83; 9,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 12,45</t>
+          <t>2,12; 7,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,76</t>
+          <t>5,1; 11,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 13,72</t>
+          <t>6,77; 12,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 20,04</t>
+          <t>7,58; 12,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,14</t>
+          <t>8,97; 15,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 10,69</t>
+          <t>11,93; 19,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,63</t>
+          <t>9,49; 19,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 12,08</t>
+          <t>10,81; 20,64</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,71; 9,86</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,2; 9,99</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 11,23</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,88; 13,29</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 11,84</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 14,48</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12,09%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>14,73%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10,83%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11,92%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>8,47%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>10,91%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,8%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,73%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 10,15</t>
+          <t>2,35; 11,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 12,89</t>
+          <t>3,65; 12,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 11,71</t>
+          <t>3,05; 11,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3,2; 13,24</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 23,05</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 20,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 16,71</t>
+          <t>4,8; 14,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>9,76; 20,88</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7,06; 16,78</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7,02; 19,46</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5,02; 13,66</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>7,79; 14,92</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 12,44</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 11,07</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7,96; 15,08</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,71; 12,36</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 14,33</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>6,24%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10,47%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>11,39%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,78%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>15,68%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>8,05%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>17,74%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,49</t>
+          <t>4,43; 7,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 8,14</t>
+          <t>4,18; 7,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,11</t>
+          <t>3,82; 7,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,86</t>
+          <t>5,5; 8,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,25</t>
+          <t>4,84; 8,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 12,78</t>
+          <t>7,01; 10,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 13,2</t>
+          <t>8,73; 12,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,44; 18,21</t>
+          <t>9,81; 12,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 9,33</t>
+          <t>10,21; 13,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 9,5</t>
+          <t>12,6; 16,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 9,52</t>
+          <t>13,55; 18,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 12,44</t>
+          <t>15,49; 20,32</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 9,33</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 9,69</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 9,92</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,8; 12,52</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 12,47</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>11,83; 14,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece trastornos depresivos (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103140</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>76905</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>75794</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>122346</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16006</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20910</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>204149</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>214936</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>223189</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>272870</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>38333</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>43645</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>307289</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>291841</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>298983</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>395216</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>54339</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>64555</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>69950; 154445</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48421; 125932</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>50682; 110954</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>87056; 168438</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12366; 20713</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16598; 26656</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>160997; 246125</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>172528; 253224</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>188885; 270934</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>224772; 331427</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32170; 44839</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37152; 50624</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>255429; 372697</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>238124; 347907</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>250732; 354760</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>333128; 464983</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>46890; 62608</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>57154; 72431</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>73664</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>76596</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>76244</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>94254</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2809</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5540</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>129382</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>135839</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>157874</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>209836</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9133</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10098</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>203046</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>212435</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>234117</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>304090</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>11942</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>15637</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46850; 117178</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>48590; 128590</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42690; 142545</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>66766; 133632</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1530; 5222</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3702; 8199</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>93405; 178387</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>104087; 173350</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>123665; 217477</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>165010; 264399</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6222; 12774</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7210; 13767</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>157036; 271152</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>170548; 274542</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>178550; 309811</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>245654; 367587</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8897; 16328</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>12070; 20172</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23125</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32051</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28304</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30244</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36667</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>60331</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>44422</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>49087</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>59792</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>92382</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>72726</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>79331</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9951; 48230</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15435; 54611</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12913; 50422</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13535; 55977</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19678; 58493</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39993; 85535</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28952; 68809</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28923; 80156</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>38831; 92109</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>66243; 125517</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>47549; 102959</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>53484; 119593</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>199928</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>185552</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>180342</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>246844</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18815</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26450</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>370198</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>411106</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>425485</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>531793</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47466</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53743</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>570126</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>596657</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>605827</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>778637</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>66281</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>80192</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>152565; 264585</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>143909; 253055</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>131548; 248714</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>188977; 304610</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14603; 24198</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21069; 32449</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>313690; 439518</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>354130; 467910</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>368537; 500568</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>453276; 607345</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>41015; 54982</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>46935; 61563</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>489687; 656801</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>525963; 683397</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>526333; 700052</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>689708; 881240</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>58670; 75362</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>71415; 89140</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
